--- a/primero.xlsx
+++ b/primero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\escritorio\projectos_python\proyecto_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6174F7B4-69A5-478F-9F6B-C1CB49CC80A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6A4665-2BB9-490F-A6A9-97D71D6B010F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{E62467BB-7C04-4E6D-81FC-5EB7614F3CBA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Diametro nominal</t>
   </si>
@@ -72,14 +72,44 @@
     <t>12</t>
   </si>
   <si>
-    <t>40 STD</t>
+    <t>1/8</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>3/8</t>
+  </si>
+  <si>
+    <t>1 1/4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3 1/2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +120,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -126,6 +164,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,199 +500,492 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C07BF90-AD54-414C-A271-51B09F9D22D5}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="7">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7">
+        <v>30</v>
+      </c>
+      <c r="E1" s="7">
+        <v>40</v>
+      </c>
+      <c r="F1" s="7">
+        <v>60</v>
+      </c>
+      <c r="G1" s="7">
+        <v>80</v>
+      </c>
+      <c r="H1" s="7">
+        <v>100</v>
+      </c>
+      <c r="I1" s="7">
+        <v>120</v>
+      </c>
+      <c r="J1" s="7">
+        <v>140</v>
+      </c>
+      <c r="K1" s="7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="E2">
+        <v>6.8326000000000002</v>
+      </c>
+      <c r="G2">
+        <v>5.4610000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>9.2455999999999996</v>
+      </c>
+      <c r="G3">
+        <v>7.6707999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>12.5222</v>
+      </c>
+      <c r="G4">
+        <v>10.744199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <f>21.3-2.11-2.11</f>
-        <v>17.080000000000002</v>
-      </c>
-      <c r="C2" s="2">
-        <f>21.3-2.77-2.77</f>
-        <v>15.760000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E5" s="2">
+        <v>15.7988</v>
+      </c>
+      <c r="G5">
+        <v>13.868399999999999</v>
+      </c>
+      <c r="K5">
+        <v>11.836399999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <f>26.7-2.11-2.11</f>
-        <v>22.48</v>
-      </c>
-      <c r="C3" s="2">
-        <f>26.7-2.87-2.87</f>
-        <v>20.959999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E6" s="2">
+        <v>20.929600000000001</v>
+      </c>
+      <c r="G6">
+        <v>18.846800000000002</v>
+      </c>
+      <c r="K6">
+        <v>15.5448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <f>33.4-2.77-2.77</f>
-        <v>27.86</v>
-      </c>
-      <c r="C4" s="2">
-        <f>33.4-3.38-3.38</f>
-        <v>26.64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E7" s="2">
+        <v>26.644600000000001</v>
+      </c>
+      <c r="G7">
+        <v>20.701000000000001</v>
+      </c>
+      <c r="K7">
+        <v>15.214600000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2">
+        <v>35.052</v>
+      </c>
+      <c r="G8">
+        <v>3.4611999999999998</v>
+      </c>
+      <c r="K8">
+        <v>29.463999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <f>48.3-2.77-2.77</f>
-        <v>42.759999999999991</v>
-      </c>
-      <c r="C5" s="2">
-        <f>48.3-3.68-3.68</f>
-        <v>40.94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="E9" s="2">
+        <v>40.893999999999998</v>
+      </c>
+      <c r="G9">
+        <v>38.1</v>
+      </c>
+      <c r="K9">
+        <v>33.985199999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <f>60.3-2.77-2.77</f>
-        <v>54.759999999999991</v>
-      </c>
-      <c r="C6" s="2">
-        <f>60.3-3.91-3.91</f>
-        <v>52.480000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="E10" s="2">
+        <v>52.501800000000003</v>
+      </c>
+      <c r="G10">
+        <v>49.250599999999999</v>
+      </c>
+      <c r="K10">
+        <v>42.849800000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <f>73-3.05-3.05</f>
-        <v>66.900000000000006</v>
-      </c>
-      <c r="C7" s="2">
-        <f>73-5.16-5.16</f>
-        <v>62.680000000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="E11" s="2">
+        <v>62.712600000000002</v>
+      </c>
+      <c r="G11">
+        <v>59.004199999999997</v>
+      </c>
+      <c r="K11">
+        <v>53.975000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2">
+        <v>77.927199999999999</v>
+      </c>
+      <c r="G12">
+        <v>73.66</v>
+      </c>
+      <c r="K12">
+        <v>66.649600000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2">
+        <v>90.119200000000006</v>
+      </c>
+      <c r="G13">
+        <v>85.445599999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2">
+        <v>102.2604</v>
+      </c>
+      <c r="G14">
+        <v>97.180400000000006</v>
+      </c>
+      <c r="I14">
+        <v>92.049599999999998</v>
+      </c>
+      <c r="K14">
+        <v>87.325199999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2">
+        <v>128.19380000000001</v>
+      </c>
+      <c r="G15">
+        <v>122.25020000000001</v>
+      </c>
+      <c r="I15">
+        <v>115.9002</v>
+      </c>
+      <c r="K15">
+        <v>109.5502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <f>168.3-3.4-3.4</f>
-        <v>161.5</v>
-      </c>
-      <c r="C8" s="2">
-        <f>168.3-7.11-7.11</f>
-        <v>154.07999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="E16" s="2">
+        <v>154.05099999999999</v>
+      </c>
+      <c r="G16">
+        <v>146.32939999999999</v>
+      </c>
+      <c r="I16">
+        <v>139.72540000000001</v>
+      </c>
+      <c r="K16">
+        <v>131.8006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <f>219.1-3.76-3.76</f>
-        <v>211.58</v>
-      </c>
-      <c r="C9" s="2">
-        <f>219.1-8.18-8.18</f>
-        <v>202.73999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C17" s="2">
+        <v>206.375</v>
+      </c>
+      <c r="D17">
+        <v>205.0034</v>
+      </c>
+      <c r="E17" s="2">
+        <v>202.7174</v>
+      </c>
+      <c r="F17" s="2">
+        <v>198.4502</v>
+      </c>
+      <c r="G17" s="2">
+        <v>193.67500000000001</v>
+      </c>
+      <c r="H17" s="2">
+        <v>188.8998</v>
+      </c>
+      <c r="I17" s="2">
+        <v>182.5498</v>
+      </c>
+      <c r="J17" s="2">
+        <v>177.8254</v>
+      </c>
+      <c r="K17" s="2">
+        <v>173.05019999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <f>273.1-4.19-4.19</f>
-        <v>264.72000000000003</v>
-      </c>
-      <c r="C10" s="2">
-        <f>273.1-9.27-9.27</f>
-        <v>254.56000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C18">
+        <v>260.35000000000002</v>
+      </c>
+      <c r="D18">
+        <v>257.45440000000002</v>
+      </c>
+      <c r="E18" s="2">
+        <v>254.50800000000001</v>
+      </c>
+      <c r="F18">
+        <v>247.65</v>
+      </c>
+      <c r="G18">
+        <v>242.87479999999999</v>
+      </c>
+      <c r="H18">
+        <v>236.5248</v>
+      </c>
+      <c r="I18">
+        <v>230.1748</v>
+      </c>
+      <c r="J18">
+        <v>222.25</v>
+      </c>
+      <c r="K18">
+        <v>215.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <f>323.9-4.57-4.57</f>
-        <v>314.76</v>
-      </c>
-      <c r="C11" s="2">
-        <f>323.9-9.53-9.53</f>
-        <v>304.84000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>311.14999999999998</v>
+      </c>
+      <c r="D19">
+        <v>307.08600000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>303.22519999999997</v>
+      </c>
+      <c r="F19">
+        <v>295.30040000000002</v>
+      </c>
+      <c r="G19">
+        <v>288.89960000000002</v>
+      </c>
+      <c r="H19">
+        <v>280.97480000000002</v>
+      </c>
+      <c r="I19">
+        <v>273.05</v>
+      </c>
+      <c r="J19">
+        <v>266.7</v>
+      </c>
+      <c r="K19">
+        <v>257.2004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>342.9</v>
+      </c>
+      <c r="C20">
+        <v>339.75040000000001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>336.55</v>
+      </c>
+      <c r="E20">
+        <v>333.34960000000001</v>
+      </c>
+      <c r="F20">
+        <v>325.4248</v>
+      </c>
+      <c r="G20">
+        <v>317.5</v>
+      </c>
+      <c r="H20">
+        <v>307.94959999999998</v>
+      </c>
+      <c r="I20">
+        <v>300.02480000000003</v>
+      </c>
+      <c r="J20">
+        <v>292.10000000000002</v>
+      </c>
+      <c r="K20">
+        <v>284.17520000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>393.7</v>
+      </c>
+      <c r="C21">
+        <v>390.55040000000002</v>
+      </c>
+      <c r="D21">
+        <v>387.35</v>
+      </c>
+      <c r="E21" s="2">
+        <v>381</v>
+      </c>
+      <c r="F21">
+        <v>373.0752</v>
+      </c>
+      <c r="G21">
+        <v>363.52480000000003</v>
+      </c>
+      <c r="H21">
+        <v>354.02519999999998</v>
+      </c>
+      <c r="I21">
+        <v>344.47480000000002</v>
+      </c>
+      <c r="J21">
+        <v>333.34960000000001</v>
+      </c>
+      <c r="K21">
+        <v>325.4248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>444.5</v>
+      </c>
+      <c r="C22">
+        <v>441.35039999999998</v>
+      </c>
+      <c r="D22">
+        <v>434.94959999999998</v>
+      </c>
+      <c r="E22" s="2">
+        <v>428.65039999999999</v>
+      </c>
+      <c r="F22" s="2">
+        <v>419.1</v>
+      </c>
+      <c r="G22">
+        <v>409.5496</v>
+      </c>
+      <c r="H22">
+        <v>398.47519999999997</v>
+      </c>
+      <c r="I22">
+        <v>387.35</v>
+      </c>
+      <c r="J22">
+        <v>377.85039999999998</v>
+      </c>
+      <c r="K22">
+        <v>366.72519999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -661,154 +994,617 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642B71A0-5262-4845-B016-42C3F7F3846D}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3">
+        <v>40</v>
+      </c>
+      <c r="G1" s="3">
+        <v>60</v>
+      </c>
+      <c r="H1" s="3">
+        <v>80</v>
+      </c>
+      <c r="I1" s="3">
+        <v>100</v>
+      </c>
+      <c r="J1" s="3">
+        <v>120</v>
+      </c>
+      <c r="K1" s="3">
+        <v>140</v>
+      </c>
+      <c r="L1" s="3">
+        <v>160</v>
+      </c>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
+        <v>7.7977999999999996</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
+        <v>6.8326000000000002</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
+        <v>5.4610000000000003</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>10.414</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>9.2455999999999996</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>7.6707999999999998</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>13.843</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>12.5222</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>10.744199999999999</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <f>21.3-2.11-2.11</f>
-        <v>17.080000000000002</v>
-      </c>
-      <c r="C2" s="5">
-        <f>21.3-2.77-2.77</f>
-        <v>15.760000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B5" s="5">
+        <v>18.033999999999999</v>
+      </c>
+      <c r="C5" s="5">
+        <v>17.119599999999998</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5">
+        <v>15.7988</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>13.868399999999999</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
+        <v>11.836399999999999</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <f>26.7-2.11-2.11</f>
-        <v>22.48</v>
-      </c>
-      <c r="C3" s="5">
-        <f>26.7-2.87-2.87</f>
-        <v>20.959999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B6" s="3">
+        <v>23.367999999999999</v>
+      </c>
+      <c r="C6" s="5">
+        <v>22.453600000000002</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5">
+        <v>20.929600000000001</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <v>18.846800000000002</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
+        <v>15.5448</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <f>33.4-2.77-2.77</f>
-        <v>27.86</v>
-      </c>
-      <c r="C4" s="5">
-        <f>33.4-3.38-3.38</f>
-        <v>26.64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B7" s="3">
+        <v>30.099</v>
+      </c>
+      <c r="C7" s="5">
+        <v>27.863800000000001</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5">
+        <v>26.644600000000001</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>20.701000000000001</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
+        <v>15.214600000000001</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>38.862000000000002</v>
+      </c>
+      <c r="C8" s="5">
+        <v>36.626800000000003</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5">
+        <v>35.052</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>3.4611999999999998</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
+        <v>29.463999999999999</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
-        <f>48.3-2.77-2.77</f>
-        <v>42.759999999999991</v>
-      </c>
-      <c r="C5" s="5">
-        <f>48.3-3.68-3.68</f>
-        <v>40.94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B9" s="3">
+        <v>44.957999999999998</v>
+      </c>
+      <c r="C9" s="5">
+        <v>42.722799999999999</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5">
+        <v>40.893999999999998</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>38.1</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
+        <v>33.985199999999999</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <f>60.3-2.77-2.77</f>
-        <v>54.759999999999991</v>
-      </c>
-      <c r="C6" s="5">
-        <f>60.3-3.91-3.91</f>
-        <v>52.480000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B10" s="3">
+        <v>57.023000000000003</v>
+      </c>
+      <c r="C10" s="5">
+        <v>54.787799999999997</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5">
+        <v>52.501800000000003</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <v>49.250599999999999</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
+        <v>42.849800000000002</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
-        <f>73-3.05-3.05</f>
-        <v>66.900000000000006</v>
-      </c>
-      <c r="C7" s="5">
-        <f>73-5.16-5.16</f>
-        <v>62.680000000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B11" s="3">
+        <v>68.808599999999998</v>
+      </c>
+      <c r="C11" s="5">
+        <v>66.929000000000002</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5">
+        <v>62.712600000000002</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <v>59.004199999999997</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
+        <v>53.975000000000001</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>84.683599999999998</v>
+      </c>
+      <c r="C12" s="5">
+        <v>82.804000000000002</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5">
+        <v>77.927199999999999</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <v>73.66</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>66.649600000000007</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>97.383600000000001</v>
+      </c>
+      <c r="C13" s="5">
+        <v>95.504000000000005</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5">
+        <v>90.119200000000006</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <v>85.445599999999999</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3">
+        <v>110.0836</v>
+      </c>
+      <c r="C14" s="5">
+        <v>108.20399999999999</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5">
+        <v>102.2604</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <v>97.180400000000006</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <v>92.049599999999998</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
+        <v>87.325199999999995</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3">
+        <v>135.76300000000001</v>
+      </c>
+      <c r="C15" s="5">
+        <v>134.49299999999999</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5">
+        <v>128.19380000000001</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <v>122.25020000000001</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
+        <v>115.9002</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
+        <v>109.5502</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
-        <f>168.3-3.4-3.4</f>
-        <v>161.5</v>
-      </c>
-      <c r="C8" s="5">
-        <f>168.3-7.11-7.11</f>
-        <v>154.07999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B16" s="3">
+        <v>162.73779999999999</v>
+      </c>
+      <c r="C16" s="5">
+        <v>161.46780000000001</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5">
+        <v>154.05099999999999</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <v>146.32939999999999</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
+        <v>139.72540000000001</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
+        <v>131.8006</v>
+      </c>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
-        <f>219.1-3.76-3.76</f>
-        <v>211.58</v>
-      </c>
-      <c r="C9" s="5">
-        <f>219.1-8.18-8.18</f>
-        <v>202.73999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B17" s="3">
+        <v>213.5378</v>
+      </c>
+      <c r="C17" s="5">
+        <v>211.5566</v>
+      </c>
+      <c r="D17" s="5">
+        <v>206.375</v>
+      </c>
+      <c r="E17" s="3">
+        <v>205.0034</v>
+      </c>
+      <c r="F17" s="5">
+        <v>202.7174</v>
+      </c>
+      <c r="G17" s="5">
+        <v>198.4502</v>
+      </c>
+      <c r="H17" s="5">
+        <v>193.67500000000001</v>
+      </c>
+      <c r="I17" s="5">
+        <v>188.8998</v>
+      </c>
+      <c r="J17" s="5">
+        <v>182.5498</v>
+      </c>
+      <c r="K17" s="5">
+        <v>177.8254</v>
+      </c>
+      <c r="L17" s="5">
+        <v>173.05019999999999</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
-        <f>273.1-4.19-4.19</f>
-        <v>264.72000000000003</v>
-      </c>
-      <c r="C10" s="5">
-        <f>273.1-9.27-9.27</f>
-        <v>254.56000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B18" s="3">
+        <v>266.24279999999999</v>
+      </c>
+      <c r="C18" s="5">
+        <v>264.66800000000001</v>
+      </c>
+      <c r="D18" s="3">
+        <v>260.35000000000002</v>
+      </c>
+      <c r="E18" s="3">
+        <v>257.45440000000002</v>
+      </c>
+      <c r="F18" s="5">
+        <v>254.50800000000001</v>
+      </c>
+      <c r="G18" s="3">
+        <v>247.65</v>
+      </c>
+      <c r="H18" s="3">
+        <v>242.87479999999999</v>
+      </c>
+      <c r="I18" s="3">
+        <v>236.5248</v>
+      </c>
+      <c r="J18" s="3">
+        <v>230.1748</v>
+      </c>
+      <c r="K18" s="3">
+        <v>222.25</v>
+      </c>
+      <c r="L18" s="3">
+        <v>215.9</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <f>323.9-4.57-4.57</f>
-        <v>314.76</v>
-      </c>
-      <c r="C11" s="5">
-        <f>323.9-9.53-9.53</f>
-        <v>304.84000000000003</v>
-      </c>
+      <c r="B19" s="3">
+        <v>315.92520000000002</v>
+      </c>
+      <c r="C19" s="5">
+        <v>314.70600000000002</v>
+      </c>
+      <c r="D19" s="3">
+        <v>311.14999999999998</v>
+      </c>
+      <c r="E19" s="3">
+        <v>307.08600000000001</v>
+      </c>
+      <c r="F19" s="5">
+        <v>303.22519999999997</v>
+      </c>
+      <c r="G19" s="3">
+        <v>295.30040000000002</v>
+      </c>
+      <c r="H19" s="3">
+        <v>288.89960000000002</v>
+      </c>
+      <c r="I19" s="3">
+        <v>280.97480000000002</v>
+      </c>
+      <c r="J19" s="3">
+        <v>273.05</v>
+      </c>
+      <c r="K19" s="3">
+        <v>266.7</v>
+      </c>
+      <c r="L19" s="3">
+        <v>257.2004</v>
+      </c>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
